--- a/salaires.xlsx
+++ b/salaires.xlsx
@@ -65,13 +65,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>0.000000</v>
+        <v>78.215556</v>
       </c>
       <c r="B2" s="1">
-        <v>0.000000</v>
+        <v>60.225978</v>
       </c>
       <c r="C2" s="1">
-        <v>0.000000</v>
+        <v>101.680222</v>
       </c>
     </row>
   </sheetData>
